--- a/WBS_15520063_15520196_DinhMinhChi_DuongHuynhMyHanh.xlsx
+++ b/WBS_15520063_15520196_DinhMinhChi_DuongHuynhMyHanh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi mi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChiDinh97\Desktop\QLDA-CNTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA2C712-6697-4E64-AD84-DCADA91C441F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45DF315-DE0E-4CA1-9446-CD8F926E2C24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -459,11 +459,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="ddd\ m/d/yy\ h:mm"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -817,32 +816,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -857,27 +856,27 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,34 +890,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -930,7 +929,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,13 +939,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,7 +999,7 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,6 +1019,53 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,53 +1090,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1421,8 +1420,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71:F76"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1492,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
@@ -1659,7 +1658,7 @@
       <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" s="95" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="11">
@@ -1700,7 +1699,7 @@
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="11">
         <v>100000</v>
       </c>
@@ -1781,7 +1780,7 @@
       <c r="E9" s="36">
         <v>43354</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="96" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="38">
@@ -1823,7 +1822,7 @@
       <c r="E10" s="14">
         <v>43111</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="11">
         <v>100000</v>
       </c>
@@ -1862,7 +1861,7 @@
       <c r="E11" s="13">
         <v>43142</v>
       </c>
-      <c r="F11" s="98"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="11">
         <v>50000</v>
       </c>
@@ -1901,7 +1900,7 @@
       <c r="E12" s="13">
         <v>43170</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="11">
         <v>50000</v>
       </c>
@@ -1940,7 +1939,7 @@
       <c r="E13" s="13">
         <v>43201</v>
       </c>
-      <c r="F13" s="98"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="11">
         <v>50000</v>
       </c>
@@ -1979,7 +1978,7 @@
       <c r="E14" s="13">
         <v>43231</v>
       </c>
-      <c r="F14" s="98"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="11">
         <v>50000</v>
       </c>
@@ -2018,7 +2017,7 @@
       <c r="E15" s="13">
         <v>43262</v>
       </c>
-      <c r="F15" s="98"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="11">
         <v>50000</v>
       </c>
@@ -2057,7 +2056,7 @@
       <c r="E16" s="13">
         <v>43292</v>
       </c>
-      <c r="F16" s="98"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="11">
         <v>50000</v>
       </c>
@@ -2096,7 +2095,7 @@
       <c r="E17" s="13">
         <v>43323</v>
       </c>
-      <c r="F17" s="98"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="11">
         <v>50000</v>
       </c>
@@ -2135,7 +2134,7 @@
       <c r="E18" s="13">
         <v>43354</v>
       </c>
-      <c r="F18" s="98"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="11">
         <v>50000</v>
       </c>
@@ -2217,7 +2216,7 @@
       <c r="E20" s="13">
         <v>43415</v>
       </c>
-      <c r="F20" s="106" t="s">
+      <c r="F20" s="103" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="67">
@@ -2258,7 +2257,7 @@
       <c r="E21" s="13">
         <v>43415</v>
       </c>
-      <c r="F21" s="98"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="68">
         <v>800000</v>
       </c>
@@ -2336,16 +2335,16 @@
       <c r="C23" s="83">
         <v>8</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="97">
         <v>43445</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="99">
         <v>43446</v>
       </c>
-      <c r="F23" s="97" t="s">
+      <c r="F23" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="87">
         <v>1000000</v>
       </c>
       <c r="H23" s="15"/>
@@ -2378,10 +2377,10 @@
       <c r="C24" s="84">
         <v>8</v>
       </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="15"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2453,19 +2452,19 @@
       <c r="B26" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="90">
         <v>8</v>
       </c>
-      <c r="D26" s="99" t="s">
+      <c r="D26" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="97" t="s">
+      <c r="F26" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="94">
         <v>5000000</v>
       </c>
       <c r="H26" s="15"/>
@@ -2495,11 +2494,11 @@
       <c r="B27" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="15"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -2527,11 +2526,11 @@
       <c r="B28" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="15"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2559,19 +2558,19 @@
       <c r="B29" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="90">
         <v>8</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="99" t="s">
+      <c r="E29" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="110">
+      <c r="G29" s="87">
         <v>5000000</v>
       </c>
       <c r="H29" s="15"/>
@@ -2601,11 +2600,11 @@
       <c r="B30" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="15"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2633,11 +2632,11 @@
       <c r="B31" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="100"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="15"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -2665,17 +2664,17 @@
       <c r="B32" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="90">
         <v>8</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="98"/>
-      <c r="G32" s="110">
+      <c r="F32" s="88"/>
+      <c r="G32" s="87">
         <v>4000000</v>
       </c>
       <c r="H32" s="15"/>
@@ -2705,11 +2704,11 @@
       <c r="B33" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="100"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="15"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2747,7 +2746,7 @@
       <c r="E34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="100"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="11">
         <f>SUM(G35:G36)</f>
         <v>10000000</v>
@@ -2788,7 +2787,7 @@
       <c r="E35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="99" t="s">
+      <c r="F35" s="93" t="s">
         <v>57</v>
       </c>
       <c r="G35" s="11">
@@ -2830,7 +2829,7 @@
       <c r="E36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="98"/>
+      <c r="F36" s="88"/>
       <c r="G36" s="11">
         <v>5000000</v>
       </c>
@@ -2861,17 +2860,17 @@
       <c r="B37" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="94">
+      <c r="C37" s="113">
         <v>8</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="99" t="s">
+      <c r="E37" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="98"/>
-      <c r="G37" s="110">
+      <c r="F37" s="88"/>
+      <c r="G37" s="87">
         <v>5000000</v>
       </c>
       <c r="H37" s="15"/>
@@ -2901,11 +2900,11 @@
       <c r="B38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
       <c r="H38" s="15"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -2933,11 +2932,11 @@
       <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="15"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -3059,10 +3058,10 @@
       <c r="E42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="99" t="s">
+      <c r="F42" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="110">
+      <c r="G42" s="87">
         <v>20000000</v>
       </c>
       <c r="I42" s="5"/>
@@ -3091,7 +3090,7 @@
       <c r="B43" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="91">
+      <c r="C43" s="110">
         <v>8</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -3100,8 +3099,8 @@
       <c r="E43" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -3128,15 +3127,15 @@
       <c r="B44" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="92"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -3163,15 +3162,15 @@
       <c r="B45" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="92"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -3198,15 +3197,15 @@
       <c r="B46" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="93"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="98"/>
-      <c r="G46" s="100"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="89"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -3243,7 +3242,7 @@
       <c r="E47" s="13">
         <v>43416</v>
       </c>
-      <c r="F47" s="112" t="s">
+      <c r="F47" s="105" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="11">
@@ -3285,7 +3284,7 @@
       <c r="E48" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="98"/>
+      <c r="F48" s="88"/>
       <c r="G48" s="11">
         <v>400000</v>
       </c>
@@ -3325,7 +3324,7 @@
       <c r="E49" s="29">
         <v>43435</v>
       </c>
-      <c r="F49" s="98"/>
+      <c r="F49" s="88"/>
       <c r="G49" s="11">
         <f>SUM(G50:G51)</f>
         <v>27600000</v>
@@ -3365,7 +3364,7 @@
       <c r="E50" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="98"/>
+      <c r="F50" s="88"/>
       <c r="G50" s="11">
         <v>13000000</v>
       </c>
@@ -3404,7 +3403,7 @@
       <c r="E51" s="29">
         <v>43435</v>
       </c>
-      <c r="F51" s="100"/>
+      <c r="F51" s="89"/>
       <c r="G51" s="11">
         <v>14600000</v>
       </c>
@@ -3477,19 +3476,19 @@
       <c r="B53" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="101">
+      <c r="C53" s="90">
         <v>8</v>
       </c>
-      <c r="D53" s="102">
+      <c r="D53" s="99">
         <v>43143</v>
       </c>
-      <c r="E53" s="102">
+      <c r="E53" s="99">
         <v>43171</v>
       </c>
-      <c r="F53" s="97" t="s">
+      <c r="F53" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="110">
+      <c r="G53" s="87">
         <v>10000000</v>
       </c>
       <c r="I53" s="5"/>
@@ -3518,11 +3517,11 @@
       <c r="B54" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -3549,17 +3548,17 @@
       <c r="B55" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="101">
+      <c r="C55" s="90">
         <v>8</v>
       </c>
-      <c r="D55" s="102">
+      <c r="D55" s="99">
         <v>43202</v>
       </c>
-      <c r="E55" s="102">
+      <c r="E55" s="99">
         <v>43202</v>
       </c>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -3586,11 +3585,11 @@
       <c r="B56" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -3617,17 +3616,17 @@
       <c r="B57" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="101">
+      <c r="C57" s="90">
         <v>8</v>
       </c>
-      <c r="D57" s="102">
+      <c r="D57" s="99">
         <v>43232</v>
       </c>
-      <c r="E57" s="102">
+      <c r="E57" s="99">
         <v>43232</v>
       </c>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -3654,11 +3653,11 @@
       <c r="B58" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -3694,10 +3693,10 @@
       <c r="E59" s="13">
         <v>43263</v>
       </c>
-      <c r="F59" s="99" t="s">
+      <c r="F59" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="110">
+      <c r="G59" s="87">
         <v>5000000</v>
       </c>
       <c r="I59" s="5"/>
@@ -3735,8 +3734,8 @@
       <c r="E60" s="13">
         <v>43293</v>
       </c>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -3773,10 +3772,10 @@
       <c r="E61" s="14">
         <v>43416</v>
       </c>
-      <c r="F61" s="99" t="s">
+      <c r="F61" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="110">
+      <c r="G61" s="87">
         <v>25000000</v>
       </c>
       <c r="I61" s="5"/>
@@ -3814,8 +3813,8 @@
       <c r="E62" s="13">
         <v>43355</v>
       </c>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -3851,8 +3850,8 @@
       <c r="E63" s="14">
         <v>43416</v>
       </c>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -3889,7 +3888,7 @@
       <c r="E64" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="99" t="s">
+      <c r="F64" s="93" t="s">
         <v>35</v>
       </c>
       <c r="G64" s="9">
@@ -3932,7 +3931,7 @@
       <c r="E65" s="13">
         <v>43446</v>
       </c>
-      <c r="F65" s="98"/>
+      <c r="F65" s="88"/>
       <c r="G65" s="11">
         <v>1000000</v>
       </c>
@@ -3972,7 +3971,7 @@
       <c r="E66" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F66" s="100"/>
+      <c r="F66" s="89"/>
       <c r="G66" s="11">
         <v>1000000</v>
       </c>
@@ -4012,10 +4011,10 @@
       <c r="E67" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="99" t="s">
+      <c r="F67" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="G67" s="110">
+      <c r="G67" s="87">
         <v>6000000</v>
       </c>
       <c r="H67" s="19"/>
@@ -4054,8 +4053,8 @@
       <c r="E68" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
       <c r="H68" s="19"/>
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
@@ -4092,8 +4091,8 @@
       <c r="E69" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
       <c r="H69" s="19"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
@@ -4173,7 +4172,7 @@
       <c r="E71" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F71" s="112" t="s">
+      <c r="F71" s="105" t="s">
         <v>116</v>
       </c>
       <c r="G71" s="9">
@@ -4216,7 +4215,7 @@
       <c r="E72" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="98"/>
+      <c r="F72" s="88"/>
       <c r="G72" s="11">
         <v>1000000</v>
       </c>
@@ -4256,7 +4255,7 @@
       <c r="E73" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F73" s="98"/>
+      <c r="F73" s="88"/>
       <c r="G73" s="11">
         <v>1000000</v>
       </c>
@@ -4296,7 +4295,7 @@
       <c r="E74" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="98"/>
+      <c r="F74" s="88"/>
       <c r="G74" s="10">
         <v>0</v>
       </c>
@@ -4336,7 +4335,7 @@
       <c r="E75" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F75" s="98"/>
+      <c r="F75" s="88"/>
       <c r="G75" s="11">
         <v>2000000</v>
       </c>
@@ -4376,7 +4375,7 @@
       <c r="E76" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F76" s="100"/>
+      <c r="F76" s="89"/>
       <c r="G76" s="10">
         <v>0</v>
       </c>
@@ -4417,7 +4416,7 @@
       <c r="E77" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="99" t="s">
+      <c r="F77" s="93" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="9">
@@ -4460,7 +4459,7 @@
       <c r="E78" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="98"/>
+      <c r="F78" s="88"/>
       <c r="G78" s="22">
         <v>0</v>
       </c>
@@ -4500,7 +4499,7 @@
       <c r="E79" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="100"/>
+      <c r="F79" s="89"/>
       <c r="G79" s="28">
         <v>1000000</v>
       </c>
@@ -4541,7 +4540,7 @@
       <c r="E80" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F80" s="103" t="s">
+      <c r="F80" s="100" t="s">
         <v>57</v>
       </c>
       <c r="G80" s="71">
@@ -4584,7 +4583,7 @@
       <c r="E81" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="104"/>
+      <c r="F81" s="101"/>
       <c r="G81" s="70">
         <v>0</v>
       </c>
@@ -4624,7 +4623,7 @@
       <c r="E82" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F82" s="105"/>
+      <c r="F82" s="102"/>
       <c r="G82" s="70">
         <v>0</v>
       </c>
@@ -4692,12 +4691,12 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="25"/>
-      <c r="B84" s="87"/>
+      <c r="B84" s="106"/>
       <c r="C84" s="85"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="26"/>
-      <c r="G84" s="89"/>
+      <c r="G84" s="108"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -4719,12 +4718,12 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="25"/>
-      <c r="B85" s="88"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="85"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="26"/>
-      <c r="G85" s="90"/>
+      <c r="G85" s="109"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -29316,43 +29315,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="F9:F18"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="F77:F79"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="G84:G85"/>
     <mergeCell ref="C43:C46"/>
@@ -29369,6 +29331,43 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E55:E56"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J11 L12">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/WBS_15520063_15520196_DinhMinhChi_DuongHuynhMyHanh.xlsx
+++ b/WBS_15520063_15520196_DinhMinhChi_DuongHuynhMyHanh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChiDinh97\Desktop\QLDA-CNTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5B27EA-2323-4858-991D-0479DC257B8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05AE2D4-1CD8-431B-8264-D42FBF51DEF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
   <si>
     <t>Công việc</t>
   </si>
@@ -376,10 +376,6 @@
     <t>24/12/2018</t>
   </si>
   <si>
-    <t>Dương Huỳnh Mỹ Hạnh
-Huỳnh Thanh Nhàn</t>
-  </si>
-  <si>
     <t>5.1. Lắp đặt phần cứng</t>
   </si>
   <si>
@@ -457,6 +453,16 @@
   </si>
   <si>
     <t>Đinh Minh Chí
+Trần Hoàng Luân</t>
+  </si>
+  <si>
+    <t>Dương Huỳnh Mỹ Hạnh
+Đinh Minh Chí
+Huỳnh Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>Đinh Minh Chí
+Dương Huỳnh Mỹ Hạnh
 Trần Hoàng Luân</t>
   </si>
 </sst>
@@ -1025,6 +1031,56 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,56 +1104,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1428,8 +1434,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1443,15 +1449,15 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1484,7 +1490,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
@@ -1525,7 +1531,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="16.5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1568,7 +1574,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1609,7 +1615,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1650,7 +1656,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="16.5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1666,7 +1672,7 @@
       <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="97" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="11">
@@ -1691,7 +1697,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="16.5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1707,7 +1713,7 @@
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="11">
         <v>100000</v>
       </c>
@@ -1730,7 +1736,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="16.5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1771,7 +1777,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="16.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1788,8 +1794,8 @@
       <c r="E9" s="36">
         <v>43354</v>
       </c>
-      <c r="F9" s="113" t="s">
-        <v>136</v>
+      <c r="F9" s="98" t="s">
+        <v>135</v>
       </c>
       <c r="G9" s="38">
         <f>SUM(G10:G18)</f>
@@ -1814,7 +1820,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16.5">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1830,7 +1836,7 @@
       <c r="E10" s="14">
         <v>43111</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="11">
         <v>100000</v>
       </c>
@@ -1853,7 +1859,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="16.5">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1869,7 +1875,7 @@
       <c r="E11" s="13">
         <v>43142</v>
       </c>
-      <c r="F11" s="98"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="11">
         <v>50000</v>
       </c>
@@ -1892,7 +1898,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="16.5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1908,7 +1914,7 @@
       <c r="E12" s="13">
         <v>43170</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="11">
         <v>50000</v>
       </c>
@@ -1931,7 +1937,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="16.5">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1947,7 +1953,7 @@
       <c r="E13" s="13">
         <v>43201</v>
       </c>
-      <c r="F13" s="98"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="11">
         <v>50000</v>
       </c>
@@ -1970,7 +1976,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16.5">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1986,7 +1992,7 @@
       <c r="E14" s="13">
         <v>43231</v>
       </c>
-      <c r="F14" s="98"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="11">
         <v>50000</v>
       </c>
@@ -2009,7 +2015,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2025,7 +2031,7 @@
       <c r="E15" s="13">
         <v>43262</v>
       </c>
-      <c r="F15" s="98"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="11">
         <v>50000</v>
       </c>
@@ -2048,7 +2054,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2064,7 +2070,7 @@
       <c r="E16" s="13">
         <v>43292</v>
       </c>
-      <c r="F16" s="98"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="11">
         <v>50000</v>
       </c>
@@ -2087,7 +2093,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2103,7 +2109,7 @@
       <c r="E17" s="13">
         <v>43323</v>
       </c>
-      <c r="F17" s="98"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="11">
         <v>50000</v>
       </c>
@@ -2126,7 +2132,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2142,7 +2148,7 @@
       <c r="E18" s="13">
         <v>43354</v>
       </c>
-      <c r="F18" s="98"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="11">
         <v>50000</v>
       </c>
@@ -2165,7 +2171,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2208,7 +2214,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2224,7 +2230,7 @@
       <c r="E20" s="13">
         <v>43415</v>
       </c>
-      <c r="F20" s="106" t="s">
+      <c r="F20" s="104" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="67">
@@ -2249,7 +2255,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2265,7 +2271,7 @@
       <c r="E21" s="13">
         <v>43415</v>
       </c>
-      <c r="F21" s="98"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="68">
         <v>800000</v>
       </c>
@@ -2289,7 +2295,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2333,7 +2339,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2343,16 +2349,16 @@
       <c r="C23" s="83">
         <v>8</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="99">
         <v>43445</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="95">
         <v>43445</v>
       </c>
-      <c r="F23" s="97" t="s">
+      <c r="F23" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="111">
+      <c r="G23" s="88">
         <v>1000000</v>
       </c>
       <c r="H23" s="15"/>
@@ -2375,7 +2381,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2385,10 +2391,10 @@
       <c r="C24" s="84">
         <v>8</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
       <c r="H24" s="15"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2409,7 +2415,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="16.5">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2453,26 +2459,26 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="16.5">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="91">
         <v>8</v>
       </c>
-      <c r="D26" s="99" t="s">
+      <c r="D26" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="97" t="s">
+      <c r="F26" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="110">
+      <c r="G26" s="96">
         <v>5000000</v>
       </c>
       <c r="H26" s="15"/>
@@ -2495,18 +2501,18 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="16.5">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="15"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -2527,18 +2533,18 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="16.5">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="15"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2559,26 +2565,26 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="16.5">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="91">
         <v>8</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="99" t="s">
+      <c r="E29" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="111">
+      <c r="G29" s="88">
         <v>5000000</v>
       </c>
       <c r="H29" s="15"/>
@@ -2601,18 +2607,18 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="15"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2633,18 +2639,18 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="100"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="15"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -2665,24 +2671,24 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="16.5">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="91">
         <v>8</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="98"/>
-      <c r="G32" s="111">
+      <c r="F32" s="89"/>
+      <c r="G32" s="88">
         <v>4000000</v>
       </c>
       <c r="H32" s="15"/>
@@ -2705,18 +2711,18 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="16.5">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="100"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="15"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2737,7 +2743,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="16.5">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2754,7 +2760,7 @@
       <c r="E34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="100"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="11">
         <f>SUM(G35:G36)</f>
         <v>10000000</v>
@@ -2779,7 +2785,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="16.5">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2795,7 +2801,7 @@
       <c r="E35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="99" t="s">
+      <c r="F35" s="94" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="11">
@@ -2821,7 +2827,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="16.5">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2837,7 +2843,7 @@
       <c r="E36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="98"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="11">
         <v>5000000</v>
       </c>
@@ -2861,24 +2867,24 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="16.5">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="94">
+      <c r="C37" s="114">
         <v>8</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="99" t="s">
+      <c r="E37" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="98"/>
-      <c r="G37" s="111">
+      <c r="F37" s="89"/>
+      <c r="G37" s="88">
         <v>5000000</v>
       </c>
       <c r="H37" s="15"/>
@@ -2901,18 +2907,18 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16.5">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
       <c r="H38" s="15"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -2933,18 +2939,18 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16.5">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="15"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -2965,7 +2971,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="16.5">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>62</v>
       </c>
       <c r="F40" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="58">
         <v>200000</v>
@@ -3007,7 +3013,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16.5">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -3050,7 +3056,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="16.5">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -3066,10 +3072,10 @@
       <c r="E42" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="99" t="s">
+      <c r="F42" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="88">
         <v>20000000</v>
       </c>
       <c r="I42" s="5"/>
@@ -3091,14 +3097,14 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="16.5">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="91">
+      <c r="C43" s="111">
         <v>8</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -3107,8 +3113,8 @@
       <c r="E43" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -3128,22 +3134,22 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="16.5">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="92"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -3163,22 +3169,22 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="16.5">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="92"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -3198,22 +3204,22 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="16.5">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="93"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="98"/>
-      <c r="G46" s="100"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="90"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -3233,7 +3239,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="16.5">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -3250,7 +3256,7 @@
       <c r="E47" s="13">
         <v>43416</v>
       </c>
-      <c r="F47" s="107" t="s">
+      <c r="F47" s="106" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="11">
@@ -3276,7 +3282,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16.5">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -3292,7 +3298,7 @@
       <c r="E48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="98"/>
+      <c r="F48" s="89"/>
       <c r="G48" s="11">
         <v>400000</v>
       </c>
@@ -3315,7 +3321,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="16.5">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -3332,7 +3338,7 @@
       <c r="E49" s="29">
         <v>43435</v>
       </c>
-      <c r="F49" s="98"/>
+      <c r="F49" s="89"/>
       <c r="G49" s="11">
         <f>SUM(G50:G51)</f>
         <v>27600000</v>
@@ -3356,7 +3362,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="16.5">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -3372,7 +3378,7 @@
       <c r="E50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="98"/>
+      <c r="F50" s="89"/>
       <c r="G50" s="11">
         <v>13000000</v>
       </c>
@@ -3395,7 +3401,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="16.5">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -3411,7 +3417,7 @@
       <c r="E51" s="29">
         <v>43435</v>
       </c>
-      <c r="F51" s="100"/>
+      <c r="F51" s="90"/>
       <c r="G51" s="11">
         <v>14600000</v>
       </c>
@@ -3434,7 +3440,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="16.5">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -3477,26 +3483,26 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="16.5">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="101">
+      <c r="C53" s="91">
         <v>8</v>
       </c>
-      <c r="D53" s="102">
+      <c r="D53" s="95">
         <v>43143</v>
       </c>
-      <c r="E53" s="102">
+      <c r="E53" s="95">
         <v>43171</v>
       </c>
-      <c r="F53" s="97" t="s">
+      <c r="F53" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="111">
+      <c r="G53" s="88">
         <v>10000000</v>
       </c>
       <c r="I53" s="5"/>
@@ -3518,18 +3524,18 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="16.5">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -3549,24 +3555,24 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="16.5">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="101">
+      <c r="C55" s="91">
         <v>8</v>
       </c>
-      <c r="D55" s="102">
+      <c r="D55" s="95">
         <v>43202</v>
       </c>
-      <c r="E55" s="102">
+      <c r="E55" s="95">
         <v>43202</v>
       </c>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -3586,18 +3592,18 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="16.5">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -3617,24 +3623,24 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="16.5">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="101">
+      <c r="C57" s="91">
         <v>8</v>
       </c>
-      <c r="D57" s="102">
+      <c r="D57" s="95">
         <v>43232</v>
       </c>
-      <c r="E57" s="102">
+      <c r="E57" s="95">
         <v>43232</v>
       </c>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -3654,18 +3660,18 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="16.5">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -3685,7 +3691,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="16.5">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3701,10 +3707,10 @@
       <c r="E59" s="13">
         <v>43263</v>
       </c>
-      <c r="F59" s="99" t="s">
+      <c r="F59" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="111">
+      <c r="G59" s="88">
         <v>5000000</v>
       </c>
       <c r="I59" s="5"/>
@@ -3726,7 +3732,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="16.5">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3742,8 +3748,8 @@
       <c r="E60" s="13">
         <v>43293</v>
       </c>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -3763,7 +3769,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="16.5">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3780,10 +3786,10 @@
       <c r="E61" s="14">
         <v>43416</v>
       </c>
-      <c r="F61" s="99" t="s">
+      <c r="F61" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="G61" s="111">
+      <c r="G61" s="88">
         <v>25000000</v>
       </c>
       <c r="I61" s="5"/>
@@ -3805,7 +3811,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="16.5">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3821,8 +3827,8 @@
       <c r="E62" s="13">
         <v>43355</v>
       </c>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -3842,7 +3848,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="16.5">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3858,8 +3864,8 @@
       <c r="E63" s="14">
         <v>43416</v>
       </c>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -3879,7 +3885,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16.5">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3896,7 +3902,7 @@
       <c r="E64" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F64" s="99" t="s">
+      <c r="F64" s="94" t="s">
         <v>34</v>
       </c>
       <c r="G64" s="9">
@@ -3923,7 +3929,7 @@
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16.5">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3939,7 +3945,7 @@
       <c r="E65" s="13">
         <v>43446</v>
       </c>
-      <c r="F65" s="98"/>
+      <c r="F65" s="89"/>
       <c r="G65" s="11">
         <v>1000000</v>
       </c>
@@ -3963,7 +3969,7 @@
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16.5">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3979,7 +3985,7 @@
       <c r="E66" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F66" s="100"/>
+      <c r="F66" s="90"/>
       <c r="G66" s="11">
         <v>1000000</v>
       </c>
@@ -4003,7 +4009,7 @@
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="16.5">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -4019,10 +4025,10 @@
       <c r="E67" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="99" t="s">
+      <c r="F67" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="G67" s="111">
+      <c r="G67" s="88">
         <v>6000000</v>
       </c>
       <c r="H67" s="19"/>
@@ -4045,7 +4051,7 @@
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="16.5">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -4061,8 +4067,8 @@
       <c r="E68" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
       <c r="H68" s="19"/>
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
@@ -4083,7 +4089,7 @@
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="16.5">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -4099,8 +4105,8 @@
       <c r="E69" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
       <c r="H69" s="19"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
@@ -4121,7 +4127,7 @@
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="16.5">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -4163,7 +4169,7 @@
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="16.5">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -4180,8 +4186,8 @@
       <c r="E71" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="107" t="s">
-        <v>115</v>
+      <c r="F71" s="106" t="s">
+        <v>137</v>
       </c>
       <c r="G71" s="9">
         <f>SUM(G72:G76)</f>
@@ -4207,12 +4213,12 @@
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="16.5">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72" s="72">
         <v>8</v>
@@ -4223,7 +4229,7 @@
       <c r="E72" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F72" s="98"/>
+      <c r="F72" s="89"/>
       <c r="G72" s="11">
         <v>1000000</v>
       </c>
@@ -4247,23 +4253,23 @@
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="16.5">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="72">
         <v>8</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F73" s="98"/>
+        <v>117</v>
+      </c>
+      <c r="F73" s="89"/>
       <c r="G73" s="11">
         <v>1000000</v>
       </c>
@@ -4287,23 +4293,23 @@
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="16.5">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" s="72">
         <v>8</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="98"/>
+        <v>119</v>
+      </c>
+      <c r="F74" s="89"/>
       <c r="G74" s="10">
         <v>0</v>
       </c>
@@ -4327,23 +4333,23 @@
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="16.5">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" s="72">
         <v>8</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" s="98"/>
+        <v>121</v>
+      </c>
+      <c r="F75" s="89"/>
       <c r="G75" s="11">
         <v>2000000</v>
       </c>
@@ -4367,12 +4373,12 @@
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="16.5">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76" s="72">
         <v>8</v>
@@ -4383,7 +4389,7 @@
       <c r="E76" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F76" s="100"/>
+      <c r="F76" s="90"/>
       <c r="G76" s="10">
         <v>0</v>
       </c>
@@ -4407,25 +4413,25 @@
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="16.5">
       <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="79">
         <f>SUM(C79,C78)</f>
         <v>10</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="107" t="s">
-        <v>137</v>
+      <c r="F77" s="106" t="s">
+        <v>136</v>
       </c>
       <c r="G77" s="9">
         <f>SUM(G78:G79)</f>
@@ -4451,23 +4457,23 @@
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="16.5">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78" s="72">
         <v>2</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F78" s="98"/>
+        <v>124</v>
+      </c>
+      <c r="F78" s="89"/>
       <c r="G78" s="22">
         <v>0</v>
       </c>
@@ -4491,12 +4497,12 @@
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="16.5">
       <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79" s="72">
         <v>8</v>
@@ -4507,7 +4513,7 @@
       <c r="E79" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="100"/>
+      <c r="F79" s="90"/>
       <c r="G79" s="28">
         <v>1000000</v>
       </c>
@@ -4531,24 +4537,24 @@
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="16.5">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="79">
         <f>SUM(C81:C82)</f>
         <v>0</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F80" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="101" t="s">
         <v>56</v>
       </c>
       <c r="G80" s="71">
@@ -4575,23 +4581,23 @@
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="16.5">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="72">
         <v>0</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F81" s="104"/>
+        <v>128</v>
+      </c>
+      <c r="F81" s="102"/>
       <c r="G81" s="70">
         <v>0</v>
       </c>
@@ -4615,23 +4621,23 @@
       <c r="Y81" s="20"/>
       <c r="Z81" s="20"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="16.5">
       <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" s="72">
         <v>0</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" s="105"/>
+        <v>128</v>
+      </c>
+      <c r="F82" s="103"/>
       <c r="G82" s="70">
         <v>0</v>
       </c>
@@ -4660,19 +4666,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" s="79">
         <v>0</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E83" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F83" s="114" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="F83" s="87" t="s">
+        <v>138</v>
       </c>
       <c r="G83" s="69">
         <v>0</v>
@@ -4697,14 +4703,14 @@
       <c r="Y83" s="20"/>
       <c r="Z83" s="20"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="16.5">
       <c r="A84" s="25"/>
-      <c r="B84" s="87"/>
+      <c r="B84" s="107"/>
       <c r="C84" s="85"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="26"/>
-      <c r="G84" s="89"/>
+      <c r="G84" s="109"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -4724,14 +4730,14 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="16.5">
       <c r="A85" s="25"/>
-      <c r="B85" s="88"/>
+      <c r="B85" s="108"/>
       <c r="C85" s="85"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="26"/>
-      <c r="G85" s="90"/>
+      <c r="G85" s="110"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -4751,7 +4757,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="16.5">
       <c r="A86" s="25"/>
       <c r="B86" s="5"/>
       <c r="C86" s="85"/>
@@ -4778,7 +4784,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="16.5">
       <c r="A87" s="25"/>
       <c r="B87" s="5"/>
       <c r="C87" s="85"/>
@@ -4805,7 +4811,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="16.5">
       <c r="A88" s="25"/>
       <c r="B88" s="5"/>
       <c r="C88" s="85"/>
@@ -4832,7 +4838,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="16.5">
       <c r="A89" s="25"/>
       <c r="B89" s="5"/>
       <c r="C89" s="85"/>
@@ -4859,7 +4865,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="16.5">
       <c r="A90" s="25"/>
       <c r="B90" s="5"/>
       <c r="C90" s="85"/>
@@ -4886,7 +4892,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="16.5">
       <c r="A91" s="25"/>
       <c r="B91" s="5"/>
       <c r="C91" s="85"/>
@@ -4913,7 +4919,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="16.5">
       <c r="A92" s="25"/>
       <c r="B92" s="5"/>
       <c r="C92" s="85"/>
@@ -4940,7 +4946,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="16.5">
       <c r="A93" s="25"/>
       <c r="B93" s="5"/>
       <c r="C93" s="85"/>
@@ -4967,7 +4973,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="16.5">
       <c r="A94" s="25"/>
       <c r="B94" s="5"/>
       <c r="C94" s="85"/>
@@ -4994,7 +5000,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="16.5">
       <c r="A95" s="25"/>
       <c r="B95" s="5"/>
       <c r="C95" s="85"/>
@@ -5021,7 +5027,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="16.5">
       <c r="A96" s="25"/>
       <c r="B96" s="5"/>
       <c r="C96" s="85"/>
@@ -5048,7 +5054,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="16.5">
       <c r="A97" s="25"/>
       <c r="B97" s="5"/>
       <c r="C97" s="85"/>
@@ -5075,7 +5081,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="16.5">
       <c r="A98" s="25"/>
       <c r="B98" s="5"/>
       <c r="C98" s="85"/>
@@ -5102,7 +5108,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="16.5">
       <c r="A99" s="25"/>
       <c r="B99" s="5"/>
       <c r="C99" s="85"/>
@@ -5129,7 +5135,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="16.5">
       <c r="A100" s="25"/>
       <c r="B100" s="5"/>
       <c r="C100" s="85"/>
@@ -29323,43 +29329,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="F9:F18"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="F77:F79"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="G84:G85"/>
     <mergeCell ref="C43:C46"/>
@@ -29376,6 +29345,43 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E55:E56"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J11 L12">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
